--- a/public/downloadables/mlm-template.xlsx
+++ b/public/downloadables/mlm-template.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\www\vagrantsmp\html\digimahousev2\public\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JhayArr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$2</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,34 +27,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>SPONSOR</t>
+  </si>
+  <si>
+    <t>PLACEMENT</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
   <si>
     <t>SLOT NO</t>
   </si>
   <si>
-    <t>SPONSOR</t>
-  </si>
-  <si>
-    <t>PLACEMENT</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
     <t>PACKAGE NUMBER</t>
   </si>
   <si>
-    <t>RIGHT</t>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>DATE CREATED</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>HEAD00001</t>
+  </si>
+  <si>
+    <t>HEAD00002</t>
+  </si>
+  <si>
+    <t>HEAD00003</t>
+  </si>
+  <si>
+    <t>HEAD00004</t>
+  </si>
+  <si>
+    <t>HEAD00005</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>companyhead@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,13 +114,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,19 +157,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -156,9 +247,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -191,9 +282,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -373,59 +464,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/downloadables/mlm-template.xlsx
+++ b/public/downloadables/mlm-template.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digima\Google Drive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SLOT NO</t>
   </si>
@@ -69,34 +77,49 @@
   <si>
     <t>HEAD00005</t>
   </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CONTACT NUMBER</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -106,7 +129,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,80 +151,357 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.57"/>
-    <col customWidth="1" min="2" max="2" width="36.14"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="6" width="18.29"/>
-    <col customWidth="1" min="7" max="7" width="16.14"/>
-    <col customWidth="1" min="8" max="8" width="14.71"/>
-    <col customWidth="1" min="9" max="9" width="9.14"/>
-    <col customWidth="1" min="10" max="10" width="10.57"/>
-    <col customWidth="1" min="11" max="26" width="9.0"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -232,10 +532,18 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -249,7 +557,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -265,16 +573,22 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -287,7 +601,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -300,7 +614,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -313,7 +627,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -326,7 +640,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -337,7 +651,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -348,7 +662,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -359,7 +673,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -370,7 +684,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -381,7 +695,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -392,7 +706,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -403,7 +717,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -414,7 +728,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -425,7 +739,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -436,7 +750,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -447,7 +761,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -458,7 +772,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -469,7 +783,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -480,7 +794,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -491,7 +805,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -502,7 +816,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -513,7 +827,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -524,7 +838,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -535,7 +849,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -546,7 +860,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -557,7 +871,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -568,7 +882,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -579,7 +893,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -590,7 +904,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -601,7 +915,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -612,7 +926,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -623,7 +937,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -634,7 +948,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -645,7 +959,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -656,7 +970,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -667,7 +981,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -678,7 +992,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -689,7 +1003,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -700,7 +1014,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -711,7 +1025,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -722,7 +1036,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -733,7 +1047,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -744,7 +1058,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -755,7 +1069,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -766,7 +1080,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -777,7 +1091,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -788,7 +1102,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -799,7 +1113,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -810,7 +1124,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -821,7 +1135,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -832,7 +1146,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -843,7 +1157,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -854,7 +1168,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -865,7 +1179,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -876,7 +1190,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -887,7 +1201,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -898,7 +1212,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -909,7 +1223,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -920,7 +1234,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -931,7 +1245,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -942,7 +1256,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -953,7 +1267,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -964,7 +1278,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -975,7 +1289,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -986,7 +1300,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -997,7 +1311,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1008,7 +1322,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1019,7 +1333,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1030,7 +1344,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1041,7 +1355,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1052,7 +1366,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1063,7 +1377,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1074,7 +1388,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1085,7 +1399,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1096,7 +1410,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1107,7 +1421,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1118,7 +1432,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1129,7 +1443,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1140,7 +1454,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1151,7 +1465,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1162,7 +1476,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1173,7 +1487,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1184,7 +1498,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1195,7 +1509,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1206,7 +1520,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -1217,7 +1531,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -1228,7 +1542,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -1239,7 +1553,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -1250,7 +1564,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -1261,7 +1575,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -1272,7 +1586,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -1283,7 +1597,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1294,7 +1608,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -1305,7 +1619,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -1316,7 +1630,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -1327,7 +1641,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -1338,7 +1652,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1349,7 +1663,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -1360,7 +1674,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -1371,7 +1685,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -1382,7 +1696,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -1393,7 +1707,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -1404,7 +1718,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -1415,7 +1729,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -1426,7 +1740,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -1437,7 +1751,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -1448,7 +1762,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -1459,7 +1773,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -1470,7 +1784,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -1481,7 +1795,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -1492,7 +1806,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -1503,7 +1817,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -1514,7 +1828,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -1525,7 +1839,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -1536,7 +1850,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -1547,7 +1861,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -1558,7 +1872,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -1569,7 +1883,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -1580,7 +1894,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -1591,7 +1905,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -1602,7 +1916,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -1613,7 +1927,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -1624,7 +1938,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -1635,7 +1949,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -1646,7 +1960,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -1657,7 +1971,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -1668,7 +1982,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -1679,7 +1993,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -1690,7 +2004,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -1701,7 +2015,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -1712,7 +2026,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -1723,7 +2037,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -1734,7 +2048,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -1745,7 +2059,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -1756,7 +2070,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -1767,7 +2081,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -1778,7 +2092,7 @@
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -1789,7 +2103,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -1800,7 +2114,7 @@
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -1811,7 +2125,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -1822,7 +2136,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -1833,7 +2147,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -1844,7 +2158,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -1855,7 +2169,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -1866,7 +2180,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -1877,7 +2191,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -1888,7 +2202,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -1899,7 +2213,7 @@
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -1910,7 +2224,7 @@
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -1921,7 +2235,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -1932,7 +2246,7 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -1943,7 +2257,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -1954,7 +2268,7 @@
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -1965,7 +2279,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -1976,7 +2290,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -1987,7 +2301,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -1998,7 +2312,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -2009,7 +2323,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -2020,7 +2334,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -2031,7 +2345,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -2042,7 +2356,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -2053,7 +2367,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -2064,7 +2378,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -2075,7 +2389,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -2086,7 +2400,7 @@
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -2097,7 +2411,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -2108,7 +2422,7 @@
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -2119,7 +2433,7 @@
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -2130,7 +2444,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -2141,7 +2455,7 @@
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -2152,7 +2466,7 @@
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -2163,7 +2477,7 @@
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -2174,7 +2488,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -2185,7 +2499,7 @@
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -2196,7 +2510,7 @@
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -2207,7 +2521,7 @@
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -2218,7 +2532,7 @@
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -2229,7 +2543,7 @@
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -2240,7 +2554,7 @@
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -2251,7 +2565,7 @@
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -2262,7 +2576,7 @@
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -2273,7 +2587,7 @@
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2284,7 +2598,7 @@
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -2295,7 +2609,7 @@
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -2306,7 +2620,7 @@
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -2317,7 +2631,7 @@
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -2328,7 +2642,7 @@
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -2339,7 +2653,7 @@
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -2350,7 +2664,7 @@
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -2361,7 +2675,7 @@
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -2372,7 +2686,7 @@
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -2383,7 +2697,7 @@
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -2394,7 +2708,7 @@
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -2405,7 +2719,7 @@
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -2416,7 +2730,7 @@
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -2427,7 +2741,7 @@
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -2438,7 +2752,7 @@
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -2449,7 +2763,7 @@
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -2460,7 +2774,7 @@
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -2471,7 +2785,7 @@
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -2482,7 +2796,7 @@
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -2493,7 +2807,7 @@
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -2504,7 +2818,7 @@
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -2515,7 +2829,7 @@
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -2526,7 +2840,7 @@
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -2537,7 +2851,7 @@
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -2548,7 +2862,7 @@
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -2559,7 +2873,7 @@
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -2570,7 +2884,7 @@
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -2581,7 +2895,7 @@
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -2592,7 +2906,7 @@
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -2603,7 +2917,7 @@
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -2614,7 +2928,7 @@
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -2625,7 +2939,7 @@
       <c r="H215" s="9"/>
       <c r="I215" s="9"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -2636,7 +2950,7 @@
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -2647,7 +2961,7 @@
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -2658,7 +2972,7 @@
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -2669,7 +2983,7 @@
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -2680,7 +2994,7 @@
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -2691,7 +3005,7 @@
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -2702,7 +3016,7 @@
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -2713,7 +3027,7 @@
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -2724,7 +3038,7 @@
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -2735,7 +3049,7 @@
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -2746,7 +3060,7 @@
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -2757,7 +3071,7 @@
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -2768,7 +3082,7 @@
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -2779,7 +3093,7 @@
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -2790,7 +3104,7 @@
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -2801,7 +3115,7 @@
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -2812,7 +3126,7 @@
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -2823,7 +3137,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -2834,7 +3148,7 @@
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -2845,7 +3159,7 @@
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -2856,7 +3170,7 @@
       <c r="H236" s="9"/>
       <c r="I236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -2867,7 +3181,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -2878,7 +3192,7 @@
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -2889,7 +3203,7 @@
       <c r="H239" s="9"/>
       <c r="I239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -2900,7 +3214,7 @@
       <c r="H240" s="9"/>
       <c r="I240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -2911,7 +3225,7 @@
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -2922,7 +3236,7 @@
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -2933,7 +3247,7 @@
       <c r="H243" s="9"/>
       <c r="I243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -2944,7 +3258,7 @@
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -2955,7 +3269,7 @@
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -2966,7 +3280,7 @@
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -2977,7 +3291,7 @@
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -2988,7 +3302,7 @@
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -2999,7 +3313,7 @@
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -3010,7 +3324,7 @@
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -3021,7 +3335,7 @@
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -3032,7 +3346,7 @@
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -3043,7 +3357,7 @@
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -3054,7 +3368,7 @@
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -3065,7 +3379,7 @@
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -3076,7 +3390,7 @@
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -3087,7 +3401,7 @@
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -3098,7 +3412,7 @@
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -3109,7 +3423,7 @@
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -3120,7 +3434,7 @@
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -3131,7 +3445,7 @@
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -3142,7 +3456,7 @@
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -3153,7 +3467,7 @@
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -3164,7 +3478,7 @@
       <c r="H264" s="9"/>
       <c r="I264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -3175,7 +3489,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -3186,7 +3500,7 @@
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -3197,7 +3511,7 @@
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -3208,7 +3522,7 @@
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -3219,7 +3533,7 @@
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -3230,7 +3544,7 @@
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -3241,7 +3555,7 @@
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -3252,7 +3566,7 @@
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -3263,7 +3577,7 @@
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -3274,7 +3588,7 @@
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -3285,7 +3599,7 @@
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -3296,7 +3610,7 @@
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -3307,7 +3621,7 @@
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -3318,7 +3632,7 @@
       <c r="H278" s="9"/>
       <c r="I278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -3329,7 +3643,7 @@
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -3340,7 +3654,7 @@
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -3351,7 +3665,7 @@
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -3362,7 +3676,7 @@
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -3373,7 +3687,7 @@
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -3384,7 +3698,7 @@
       <c r="H284" s="9"/>
       <c r="I284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -3395,7 +3709,7 @@
       <c r="H285" s="9"/>
       <c r="I285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -3406,7 +3720,7 @@
       <c r="H286" s="9"/>
       <c r="I286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -3417,7 +3731,7 @@
       <c r="H287" s="9"/>
       <c r="I287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -3428,7 +3742,7 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -3439,7 +3753,7 @@
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -3450,7 +3764,7 @@
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -3461,7 +3775,7 @@
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -3472,7 +3786,7 @@
       <c r="H292" s="9"/>
       <c r="I292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -3483,7 +3797,7 @@
       <c r="H293" s="9"/>
       <c r="I293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -3494,7 +3808,7 @@
       <c r="H294" s="9"/>
       <c r="I294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -3505,7 +3819,7 @@
       <c r="H295" s="9"/>
       <c r="I295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -3516,7 +3830,7 @@
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -3527,7 +3841,7 @@
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -3538,7 +3852,7 @@
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -3549,7 +3863,7 @@
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -3560,7 +3874,7 @@
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -3571,7 +3885,7 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -3582,7 +3896,7 @@
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -3593,7 +3907,7 @@
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -3604,7 +3918,7 @@
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -3615,7 +3929,7 @@
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -3626,7 +3940,7 @@
       <c r="H306" s="9"/>
       <c r="I306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -3637,7 +3951,7 @@
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -3648,7 +3962,7 @@
       <c r="H308" s="9"/>
       <c r="I308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -3659,7 +3973,7 @@
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -3670,7 +3984,7 @@
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -3681,7 +3995,7 @@
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -3692,7 +4006,7 @@
       <c r="H312" s="9"/>
       <c r="I312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -3703,7 +4017,7 @@
       <c r="H313" s="9"/>
       <c r="I313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -3714,7 +4028,7 @@
       <c r="H314" s="9"/>
       <c r="I314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -3725,7 +4039,7 @@
       <c r="H315" s="9"/>
       <c r="I315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -3736,7 +4050,7 @@
       <c r="H316" s="9"/>
       <c r="I316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -3747,7 +4061,7 @@
       <c r="H317" s="9"/>
       <c r="I317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -3758,7 +4072,7 @@
       <c r="H318" s="9"/>
       <c r="I318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -3769,7 +4083,7 @@
       <c r="H319" s="9"/>
       <c r="I319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -3780,7 +4094,7 @@
       <c r="H320" s="9"/>
       <c r="I320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -3791,7 +4105,7 @@
       <c r="H321" s="9"/>
       <c r="I321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -3802,7 +4116,7 @@
       <c r="H322" s="9"/>
       <c r="I322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -3813,7 +4127,7 @@
       <c r="H323" s="9"/>
       <c r="I323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -3824,7 +4138,7 @@
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -3835,7 +4149,7 @@
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -3846,7 +4160,7 @@
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -3857,7 +4171,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -3868,7 +4182,7 @@
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -3879,7 +4193,7 @@
       <c r="H329" s="9"/>
       <c r="I329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -3890,7 +4204,7 @@
       <c r="H330" s="9"/>
       <c r="I330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -3901,7 +4215,7 @@
       <c r="H331" s="9"/>
       <c r="I331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -3912,7 +4226,7 @@
       <c r="H332" s="9"/>
       <c r="I332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -3923,7 +4237,7 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -3934,7 +4248,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -3945,7 +4259,7 @@
       <c r="H335" s="9"/>
       <c r="I335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -3956,7 +4270,7 @@
       <c r="H336" s="9"/>
       <c r="I336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -3967,7 +4281,7 @@
       <c r="H337" s="9"/>
       <c r="I337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -3978,7 +4292,7 @@
       <c r="H338" s="9"/>
       <c r="I338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -3989,7 +4303,7 @@
       <c r="H339" s="9"/>
       <c r="I339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -4000,7 +4314,7 @@
       <c r="H340" s="9"/>
       <c r="I340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -4011,7 +4325,7 @@
       <c r="H341" s="9"/>
       <c r="I341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -4022,7 +4336,7 @@
       <c r="H342" s="9"/>
       <c r="I342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -4033,7 +4347,7 @@
       <c r="H343" s="9"/>
       <c r="I343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -4044,7 +4358,7 @@
       <c r="H344" s="9"/>
       <c r="I344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -4055,7 +4369,7 @@
       <c r="H345" s="9"/>
       <c r="I345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -4066,7 +4380,7 @@
       <c r="H346" s="9"/>
       <c r="I346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -4077,7 +4391,7 @@
       <c r="H347" s="9"/>
       <c r="I347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -4088,7 +4402,7 @@
       <c r="H348" s="9"/>
       <c r="I348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -4099,7 +4413,7 @@
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -4110,7 +4424,7 @@
       <c r="H350" s="9"/>
       <c r="I350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -4121,7 +4435,7 @@
       <c r="H351" s="9"/>
       <c r="I351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -4132,7 +4446,7 @@
       <c r="H352" s="9"/>
       <c r="I352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -4143,7 +4457,7 @@
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -4154,7 +4468,7 @@
       <c r="H354" s="9"/>
       <c r="I354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -4165,7 +4479,7 @@
       <c r="H355" s="9"/>
       <c r="I355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -4176,7 +4490,7 @@
       <c r="H356" s="9"/>
       <c r="I356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -4187,7 +4501,7 @@
       <c r="H357" s="9"/>
       <c r="I357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -4198,7 +4512,7 @@
       <c r="H358" s="9"/>
       <c r="I358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -4209,7 +4523,7 @@
       <c r="H359" s="9"/>
       <c r="I359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -4220,7 +4534,7 @@
       <c r="H360" s="9"/>
       <c r="I360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -4231,7 +4545,7 @@
       <c r="H361" s="9"/>
       <c r="I361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -4242,7 +4556,7 @@
       <c r="H362" s="9"/>
       <c r="I362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -4253,7 +4567,7 @@
       <c r="H363" s="9"/>
       <c r="I363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -4264,7 +4578,7 @@
       <c r="H364" s="9"/>
       <c r="I364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -4275,7 +4589,7 @@
       <c r="H365" s="9"/>
       <c r="I365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -4286,7 +4600,7 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -4297,7 +4611,7 @@
       <c r="H367" s="9"/>
       <c r="I367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -4308,7 +4622,7 @@
       <c r="H368" s="9"/>
       <c r="I368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -4319,7 +4633,7 @@
       <c r="H369" s="9"/>
       <c r="I369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -4330,7 +4644,7 @@
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -4341,7 +4655,7 @@
       <c r="H371" s="9"/>
       <c r="I371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -4352,7 +4666,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -4363,7 +4677,7 @@
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -4374,7 +4688,7 @@
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -4385,7 +4699,7 @@
       <c r="H375" s="9"/>
       <c r="I375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -4396,7 +4710,7 @@
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -4407,7 +4721,7 @@
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -4418,7 +4732,7 @@
       <c r="H378" s="9"/>
       <c r="I378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -4429,7 +4743,7 @@
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -4440,7 +4754,7 @@
       <c r="H380" s="9"/>
       <c r="I380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -4451,7 +4765,7 @@
       <c r="H381" s="9"/>
       <c r="I381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -4462,7 +4776,7 @@
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -4473,7 +4787,7 @@
       <c r="H383" s="9"/>
       <c r="I383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -4484,7 +4798,7 @@
       <c r="H384" s="9"/>
       <c r="I384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -4495,7 +4809,7 @@
       <c r="H385" s="9"/>
       <c r="I385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -4506,7 +4820,7 @@
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -4517,7 +4831,7 @@
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -4528,7 +4842,7 @@
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -4539,7 +4853,7 @@
       <c r="H389" s="9"/>
       <c r="I389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -4550,7 +4864,7 @@
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -4561,7 +4875,7 @@
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -4572,7 +4886,7 @@
       <c r="H392" s="9"/>
       <c r="I392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -4583,7 +4897,7 @@
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -4594,7 +4908,7 @@
       <c r="H394" s="9"/>
       <c r="I394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -4605,7 +4919,7 @@
       <c r="H395" s="9"/>
       <c r="I395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -4616,7 +4930,7 @@
       <c r="H396" s="9"/>
       <c r="I396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -4627,7 +4941,7 @@
       <c r="H397" s="9"/>
       <c r="I397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -4638,7 +4952,7 @@
       <c r="H398" s="9"/>
       <c r="I398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -4649,7 +4963,7 @@
       <c r="H399" s="9"/>
       <c r="I399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -4660,7 +4974,7 @@
       <c r="H400" s="9"/>
       <c r="I400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -4671,7 +4985,7 @@
       <c r="H401" s="9"/>
       <c r="I401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -4682,7 +4996,7 @@
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -4693,7 +5007,7 @@
       <c r="H403" s="9"/>
       <c r="I403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -4704,7 +5018,7 @@
       <c r="H404" s="9"/>
       <c r="I404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -4715,7 +5029,7 @@
       <c r="H405" s="9"/>
       <c r="I405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -4726,7 +5040,7 @@
       <c r="H406" s="9"/>
       <c r="I406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -4737,7 +5051,7 @@
       <c r="H407" s="9"/>
       <c r="I407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -4748,7 +5062,7 @@
       <c r="H408" s="9"/>
       <c r="I408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -4759,7 +5073,7 @@
       <c r="H409" s="9"/>
       <c r="I409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -4770,7 +5084,7 @@
       <c r="H410" s="9"/>
       <c r="I410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -4781,7 +5095,7 @@
       <c r="H411" s="9"/>
       <c r="I411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -4792,7 +5106,7 @@
       <c r="H412" s="9"/>
       <c r="I412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -4803,7 +5117,7 @@
       <c r="H413" s="9"/>
       <c r="I413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -4814,7 +5128,7 @@
       <c r="H414" s="9"/>
       <c r="I414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -4825,7 +5139,7 @@
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -4836,7 +5150,7 @@
       <c r="H416" s="9"/>
       <c r="I416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -4847,7 +5161,7 @@
       <c r="H417" s="9"/>
       <c r="I417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -4858,7 +5172,7 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -4869,7 +5183,7 @@
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -4880,7 +5194,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -4891,7 +5205,7 @@
       <c r="H421" s="9"/>
       <c r="I421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -4902,7 +5216,7 @@
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -4913,7 +5227,7 @@
       <c r="H423" s="9"/>
       <c r="I423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -4924,7 +5238,7 @@
       <c r="H424" s="9"/>
       <c r="I424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -4935,7 +5249,7 @@
       <c r="H425" s="9"/>
       <c r="I425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -4946,7 +5260,7 @@
       <c r="H426" s="9"/>
       <c r="I426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -4957,7 +5271,7 @@
       <c r="H427" s="9"/>
       <c r="I427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -4968,7 +5282,7 @@
       <c r="H428" s="9"/>
       <c r="I428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -4979,7 +5293,7 @@
       <c r="H429" s="9"/>
       <c r="I429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -4990,7 +5304,7 @@
       <c r="H430" s="9"/>
       <c r="I430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -5001,7 +5315,7 @@
       <c r="H431" s="9"/>
       <c r="I431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -5012,7 +5326,7 @@
       <c r="H432" s="9"/>
       <c r="I432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -5023,7 +5337,7 @@
       <c r="H433" s="9"/>
       <c r="I433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -5034,7 +5348,7 @@
       <c r="H434" s="9"/>
       <c r="I434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -5045,7 +5359,7 @@
       <c r="H435" s="9"/>
       <c r="I435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -5056,7 +5370,7 @@
       <c r="H436" s="9"/>
       <c r="I436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -5067,7 +5381,7 @@
       <c r="H437" s="9"/>
       <c r="I437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -5078,7 +5392,7 @@
       <c r="H438" s="9"/>
       <c r="I438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -5089,7 +5403,7 @@
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -5100,7 +5414,7 @@
       <c r="H440" s="9"/>
       <c r="I440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -5111,7 +5425,7 @@
       <c r="H441" s="9"/>
       <c r="I441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -5122,7 +5436,7 @@
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -5133,7 +5447,7 @@
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -5144,7 +5458,7 @@
       <c r="H444" s="9"/>
       <c r="I444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -5155,7 +5469,7 @@
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -5166,7 +5480,7 @@
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -5177,7 +5491,7 @@
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -5188,7 +5502,7 @@
       <c r="H448" s="9"/>
       <c r="I448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -5199,7 +5513,7 @@
       <c r="H449" s="9"/>
       <c r="I449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -5210,7 +5524,7 @@
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -5221,7 +5535,7 @@
       <c r="H451" s="9"/>
       <c r="I451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -5232,7 +5546,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -5243,7 +5557,7 @@
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -5254,7 +5568,7 @@
       <c r="H454" s="9"/>
       <c r="I454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -5265,7 +5579,7 @@
       <c r="H455" s="9"/>
       <c r="I455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -5276,7 +5590,7 @@
       <c r="H456" s="9"/>
       <c r="I456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -5287,7 +5601,7 @@
       <c r="H457" s="9"/>
       <c r="I457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -5298,7 +5612,7 @@
       <c r="H458" s="9"/>
       <c r="I458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -5309,7 +5623,7 @@
       <c r="H459" s="9"/>
       <c r="I459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -5320,7 +5634,7 @@
       <c r="H460" s="9"/>
       <c r="I460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -5331,7 +5645,7 @@
       <c r="H461" s="9"/>
       <c r="I461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -5342,7 +5656,7 @@
       <c r="H462" s="9"/>
       <c r="I462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -5353,7 +5667,7 @@
       <c r="H463" s="9"/>
       <c r="I463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -5364,7 +5678,7 @@
       <c r="H464" s="9"/>
       <c r="I464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -5375,7 +5689,7 @@
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -5386,7 +5700,7 @@
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -5397,7 +5711,7 @@
       <c r="H467" s="9"/>
       <c r="I467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -5408,7 +5722,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -5419,7 +5733,7 @@
       <c r="H469" s="9"/>
       <c r="I469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -5430,7 +5744,7 @@
       <c r="H470" s="9"/>
       <c r="I470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -5441,7 +5755,7 @@
       <c r="H471" s="9"/>
       <c r="I471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -5452,7 +5766,7 @@
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -5463,7 +5777,7 @@
       <c r="H473" s="9"/>
       <c r="I473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -5474,7 +5788,7 @@
       <c r="H474" s="9"/>
       <c r="I474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -5485,7 +5799,7 @@
       <c r="H475" s="9"/>
       <c r="I475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -5496,7 +5810,7 @@
       <c r="H476" s="9"/>
       <c r="I476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -5507,7 +5821,7 @@
       <c r="H477" s="9"/>
       <c r="I477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -5518,7 +5832,7 @@
       <c r="H478" s="9"/>
       <c r="I478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -5529,7 +5843,7 @@
       <c r="H479" s="9"/>
       <c r="I479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -5540,7 +5854,7 @@
       <c r="H480" s="9"/>
       <c r="I480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -5551,7 +5865,7 @@
       <c r="H481" s="9"/>
       <c r="I481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -5562,7 +5876,7 @@
       <c r="H482" s="9"/>
       <c r="I482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -5573,7 +5887,7 @@
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -5584,7 +5898,7 @@
       <c r="H484" s="9"/>
       <c r="I484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -5595,7 +5909,7 @@
       <c r="H485" s="9"/>
       <c r="I485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -5606,7 +5920,7 @@
       <c r="H486" s="9"/>
       <c r="I486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -5617,7 +5931,7 @@
       <c r="H487" s="9"/>
       <c r="I487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -5628,7 +5942,7 @@
       <c r="H488" s="9"/>
       <c r="I488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -5639,7 +5953,7 @@
       <c r="H489" s="9"/>
       <c r="I489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -5650,7 +5964,7 @@
       <c r="H490" s="9"/>
       <c r="I490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -5661,7 +5975,7 @@
       <c r="H491" s="9"/>
       <c r="I491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -5672,7 +5986,7 @@
       <c r="H492" s="9"/>
       <c r="I492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -5683,7 +5997,7 @@
       <c r="H493" s="9"/>
       <c r="I493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -5694,7 +6008,7 @@
       <c r="H494" s="9"/>
       <c r="I494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -5705,7 +6019,7 @@
       <c r="H495" s="9"/>
       <c r="I495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -5716,7 +6030,7 @@
       <c r="H496" s="9"/>
       <c r="I496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -5727,7 +6041,7 @@
       <c r="H497" s="9"/>
       <c r="I497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -5738,7 +6052,7 @@
       <c r="H498" s="9"/>
       <c r="I498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -5749,7 +6063,7 @@
       <c r="H499" s="9"/>
       <c r="I499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -5760,7 +6074,7 @@
       <c r="H500" s="9"/>
       <c r="I500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -5771,7 +6085,7 @@
       <c r="H501" s="9"/>
       <c r="I501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -5782,7 +6096,7 @@
       <c r="H502" s="9"/>
       <c r="I502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -5793,7 +6107,7 @@
       <c r="H503" s="9"/>
       <c r="I503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -5804,7 +6118,7 @@
       <c r="H504" s="9"/>
       <c r="I504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -5815,7 +6129,7 @@
       <c r="H505" s="9"/>
       <c r="I505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -5826,7 +6140,7 @@
       <c r="H506" s="9"/>
       <c r="I506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -5837,7 +6151,7 @@
       <c r="H507" s="9"/>
       <c r="I507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -5848,7 +6162,7 @@
       <c r="H508" s="9"/>
       <c r="I508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -5859,7 +6173,7 @@
       <c r="H509" s="9"/>
       <c r="I509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -5870,7 +6184,7 @@
       <c r="H510" s="9"/>
       <c r="I510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -5881,7 +6195,7 @@
       <c r="H511" s="9"/>
       <c r="I511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -5892,7 +6206,7 @@
       <c r="H512" s="9"/>
       <c r="I512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -5903,7 +6217,7 @@
       <c r="H513" s="9"/>
       <c r="I513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -5914,7 +6228,7 @@
       <c r="H514" s="9"/>
       <c r="I514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -5925,7 +6239,7 @@
       <c r="H515" s="9"/>
       <c r="I515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -5936,7 +6250,7 @@
       <c r="H516" s="9"/>
       <c r="I516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -5947,7 +6261,7 @@
       <c r="H517" s="9"/>
       <c r="I517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -5958,7 +6272,7 @@
       <c r="H518" s="9"/>
       <c r="I518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -5969,7 +6283,7 @@
       <c r="H519" s="9"/>
       <c r="I519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -5980,7 +6294,7 @@
       <c r="H520" s="9"/>
       <c r="I520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -5991,7 +6305,7 @@
       <c r="H521" s="9"/>
       <c r="I521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -6002,7 +6316,7 @@
       <c r="H522" s="9"/>
       <c r="I522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -6013,7 +6327,7 @@
       <c r="H523" s="9"/>
       <c r="I523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -6024,7 +6338,7 @@
       <c r="H524" s="9"/>
       <c r="I524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -6035,7 +6349,7 @@
       <c r="H525" s="9"/>
       <c r="I525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -6046,7 +6360,7 @@
       <c r="H526" s="9"/>
       <c r="I526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -6057,7 +6371,7 @@
       <c r="H527" s="9"/>
       <c r="I527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -6068,7 +6382,7 @@
       <c r="H528" s="9"/>
       <c r="I528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -6079,7 +6393,7 @@
       <c r="H529" s="9"/>
       <c r="I529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -6090,7 +6404,7 @@
       <c r="H530" s="9"/>
       <c r="I530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -6101,7 +6415,7 @@
       <c r="H531" s="9"/>
       <c r="I531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -6112,7 +6426,7 @@
       <c r="H532" s="9"/>
       <c r="I532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -6123,7 +6437,7 @@
       <c r="H533" s="9"/>
       <c r="I533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -6134,7 +6448,7 @@
       <c r="H534" s="9"/>
       <c r="I534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -6145,7 +6459,7 @@
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -6156,7 +6470,7 @@
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -6167,7 +6481,7 @@
       <c r="H537" s="9"/>
       <c r="I537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -6178,7 +6492,7 @@
       <c r="H538" s="9"/>
       <c r="I538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -6189,7 +6503,7 @@
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -6200,7 +6514,7 @@
       <c r="H540" s="9"/>
       <c r="I540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -6211,7 +6525,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -6222,7 +6536,7 @@
       <c r="H542" s="9"/>
       <c r="I542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -6233,7 +6547,7 @@
       <c r="H543" s="9"/>
       <c r="I543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -6244,7 +6558,7 @@
       <c r="H544" s="9"/>
       <c r="I544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -6255,7 +6569,7 @@
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -6266,7 +6580,7 @@
       <c r="H546" s="9"/>
       <c r="I546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -6277,7 +6591,7 @@
       <c r="H547" s="9"/>
       <c r="I547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -6288,7 +6602,7 @@
       <c r="H548" s="9"/>
       <c r="I548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -6299,7 +6613,7 @@
       <c r="H549" s="9"/>
       <c r="I549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -6310,7 +6624,7 @@
       <c r="H550" s="9"/>
       <c r="I550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -6321,7 +6635,7 @@
       <c r="H551" s="9"/>
       <c r="I551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -6332,7 +6646,7 @@
       <c r="H552" s="9"/>
       <c r="I552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -6343,7 +6657,7 @@
       <c r="H553" s="9"/>
       <c r="I553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -6354,7 +6668,7 @@
       <c r="H554" s="9"/>
       <c r="I554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -6365,7 +6679,7 @@
       <c r="H555" s="9"/>
       <c r="I555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -6376,7 +6690,7 @@
       <c r="H556" s="9"/>
       <c r="I556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -6387,7 +6701,7 @@
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -6398,7 +6712,7 @@
       <c r="H558" s="9"/>
       <c r="I558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -6409,7 +6723,7 @@
       <c r="H559" s="9"/>
       <c r="I559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -6420,7 +6734,7 @@
       <c r="H560" s="9"/>
       <c r="I560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -6431,7 +6745,7 @@
       <c r="H561" s="9"/>
       <c r="I561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -6442,7 +6756,7 @@
       <c r="H562" s="9"/>
       <c r="I562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -6453,7 +6767,7 @@
       <c r="H563" s="9"/>
       <c r="I563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -6464,7 +6778,7 @@
       <c r="H564" s="9"/>
       <c r="I564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -6475,7 +6789,7 @@
       <c r="H565" s="9"/>
       <c r="I565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -6486,7 +6800,7 @@
       <c r="H566" s="9"/>
       <c r="I566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -6497,7 +6811,7 @@
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -6508,7 +6822,7 @@
       <c r="H568" s="9"/>
       <c r="I568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -6519,7 +6833,7 @@
       <c r="H569" s="9"/>
       <c r="I569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -6530,7 +6844,7 @@
       <c r="H570" s="9"/>
       <c r="I570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -6541,7 +6855,7 @@
       <c r="H571" s="9"/>
       <c r="I571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -6552,7 +6866,7 @@
       <c r="H572" s="9"/>
       <c r="I572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -6563,7 +6877,7 @@
       <c r="H573" s="9"/>
       <c r="I573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -6574,7 +6888,7 @@
       <c r="H574" s="9"/>
       <c r="I574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -6585,7 +6899,7 @@
       <c r="H575" s="9"/>
       <c r="I575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -6596,7 +6910,7 @@
       <c r="H576" s="9"/>
       <c r="I576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -6607,7 +6921,7 @@
       <c r="H577" s="9"/>
       <c r="I577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -6618,7 +6932,7 @@
       <c r="H578" s="9"/>
       <c r="I578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -6629,7 +6943,7 @@
       <c r="H579" s="9"/>
       <c r="I579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -6640,7 +6954,7 @@
       <c r="H580" s="9"/>
       <c r="I580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -6651,7 +6965,7 @@
       <c r="H581" s="9"/>
       <c r="I581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -6662,7 +6976,7 @@
       <c r="H582" s="9"/>
       <c r="I582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -6673,7 +6987,7 @@
       <c r="H583" s="9"/>
       <c r="I583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -6684,7 +6998,7 @@
       <c r="H584" s="9"/>
       <c r="I584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -6695,7 +7009,7 @@
       <c r="H585" s="9"/>
       <c r="I585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -6706,7 +7020,7 @@
       <c r="H586" s="9"/>
       <c r="I586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -6717,7 +7031,7 @@
       <c r="H587" s="9"/>
       <c r="I587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -6728,7 +7042,7 @@
       <c r="H588" s="9"/>
       <c r="I588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -6739,7 +7053,7 @@
       <c r="H589" s="9"/>
       <c r="I589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -6750,7 +7064,7 @@
       <c r="H590" s="9"/>
       <c r="I590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -6761,7 +7075,7 @@
       <c r="H591" s="9"/>
       <c r="I591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -6772,7 +7086,7 @@
       <c r="H592" s="9"/>
       <c r="I592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -6783,7 +7097,7 @@
       <c r="H593" s="9"/>
       <c r="I593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -6794,7 +7108,7 @@
       <c r="H594" s="9"/>
       <c r="I594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -6805,7 +7119,7 @@
       <c r="H595" s="9"/>
       <c r="I595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -6816,7 +7130,7 @@
       <c r="H596" s="9"/>
       <c r="I596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -6827,7 +7141,7 @@
       <c r="H597" s="9"/>
       <c r="I597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -6838,7 +7152,7 @@
       <c r="H598" s="9"/>
       <c r="I598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -6849,7 +7163,7 @@
       <c r="H599" s="9"/>
       <c r="I599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -6860,7 +7174,7 @@
       <c r="H600" s="9"/>
       <c r="I600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -6871,7 +7185,7 @@
       <c r="H601" s="9"/>
       <c r="I601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -6882,7 +7196,7 @@
       <c r="H602" s="9"/>
       <c r="I602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -6893,7 +7207,7 @@
       <c r="H603" s="9"/>
       <c r="I603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -6904,7 +7218,7 @@
       <c r="H604" s="9"/>
       <c r="I604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -6915,7 +7229,7 @@
       <c r="H605" s="9"/>
       <c r="I605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -6926,7 +7240,7 @@
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -6937,7 +7251,7 @@
       <c r="H607" s="9"/>
       <c r="I607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -6948,7 +7262,7 @@
       <c r="H608" s="9"/>
       <c r="I608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -6959,7 +7273,7 @@
       <c r="H609" s="9"/>
       <c r="I609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -6970,7 +7284,7 @@
       <c r="H610" s="9"/>
       <c r="I610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -6981,7 +7295,7 @@
       <c r="H611" s="9"/>
       <c r="I611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -6992,7 +7306,7 @@
       <c r="H612" s="9"/>
       <c r="I612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -7003,7 +7317,7 @@
       <c r="H613" s="9"/>
       <c r="I613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -7014,7 +7328,7 @@
       <c r="H614" s="9"/>
       <c r="I614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -7025,7 +7339,7 @@
       <c r="H615" s="9"/>
       <c r="I615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -7036,7 +7350,7 @@
       <c r="H616" s="9"/>
       <c r="I616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -7047,7 +7361,7 @@
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -7058,7 +7372,7 @@
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -7069,7 +7383,7 @@
       <c r="H619" s="9"/>
       <c r="I619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -7080,7 +7394,7 @@
       <c r="H620" s="9"/>
       <c r="I620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -7091,7 +7405,7 @@
       <c r="H621" s="9"/>
       <c r="I621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -7102,7 +7416,7 @@
       <c r="H622" s="9"/>
       <c r="I622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -7113,7 +7427,7 @@
       <c r="H623" s="9"/>
       <c r="I623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -7124,7 +7438,7 @@
       <c r="H624" s="9"/>
       <c r="I624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -7135,7 +7449,7 @@
       <c r="H625" s="9"/>
       <c r="I625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -7146,7 +7460,7 @@
       <c r="H626" s="9"/>
       <c r="I626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -7157,7 +7471,7 @@
       <c r="H627" s="9"/>
       <c r="I627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -7168,7 +7482,7 @@
       <c r="H628" s="9"/>
       <c r="I628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -7179,7 +7493,7 @@
       <c r="H629" s="9"/>
       <c r="I629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -7190,7 +7504,7 @@
       <c r="H630" s="9"/>
       <c r="I630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -7201,7 +7515,7 @@
       <c r="H631" s="9"/>
       <c r="I631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -7212,7 +7526,7 @@
       <c r="H632" s="9"/>
       <c r="I632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -7223,7 +7537,7 @@
       <c r="H633" s="9"/>
       <c r="I633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -7234,7 +7548,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -7245,7 +7559,7 @@
       <c r="H635" s="9"/>
       <c r="I635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -7256,7 +7570,7 @@
       <c r="H636" s="9"/>
       <c r="I636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -7267,7 +7581,7 @@
       <c r="H637" s="9"/>
       <c r="I637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -7278,7 +7592,7 @@
       <c r="H638" s="9"/>
       <c r="I638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -7289,7 +7603,7 @@
       <c r="H639" s="9"/>
       <c r="I639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -7300,7 +7614,7 @@
       <c r="H640" s="9"/>
       <c r="I640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -7311,7 +7625,7 @@
       <c r="H641" s="9"/>
       <c r="I641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -7322,7 +7636,7 @@
       <c r="H642" s="9"/>
       <c r="I642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -7333,7 +7647,7 @@
       <c r="H643" s="9"/>
       <c r="I643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -7344,7 +7658,7 @@
       <c r="H644" s="9"/>
       <c r="I644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -7355,7 +7669,7 @@
       <c r="H645" s="9"/>
       <c r="I645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -7366,7 +7680,7 @@
       <c r="H646" s="9"/>
       <c r="I646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -7377,7 +7691,7 @@
       <c r="H647" s="9"/>
       <c r="I647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -7388,7 +7702,7 @@
       <c r="H648" s="9"/>
       <c r="I648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -7399,7 +7713,7 @@
       <c r="H649" s="9"/>
       <c r="I649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -7410,7 +7724,7 @@
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -7421,7 +7735,7 @@
       <c r="H651" s="9"/>
       <c r="I651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -7432,7 +7746,7 @@
       <c r="H652" s="9"/>
       <c r="I652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -7443,7 +7757,7 @@
       <c r="H653" s="9"/>
       <c r="I653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -7454,7 +7768,7 @@
       <c r="H654" s="9"/>
       <c r="I654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -7465,7 +7779,7 @@
       <c r="H655" s="9"/>
       <c r="I655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -7476,7 +7790,7 @@
       <c r="H656" s="9"/>
       <c r="I656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -7487,7 +7801,7 @@
       <c r="H657" s="9"/>
       <c r="I657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -7498,7 +7812,7 @@
       <c r="H658" s="9"/>
       <c r="I658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -7509,7 +7823,7 @@
       <c r="H659" s="9"/>
       <c r="I659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -7520,7 +7834,7 @@
       <c r="H660" s="9"/>
       <c r="I660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -7531,7 +7845,7 @@
       <c r="H661" s="9"/>
       <c r="I661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -7542,7 +7856,7 @@
       <c r="H662" s="9"/>
       <c r="I662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -7553,7 +7867,7 @@
       <c r="H663" s="9"/>
       <c r="I663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -7564,7 +7878,7 @@
       <c r="H664" s="9"/>
       <c r="I664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -7575,7 +7889,7 @@
       <c r="H665" s="9"/>
       <c r="I665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -7586,7 +7900,7 @@
       <c r="H666" s="9"/>
       <c r="I666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -7597,7 +7911,7 @@
       <c r="H667" s="9"/>
       <c r="I667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -7608,7 +7922,7 @@
       <c r="H668" s="9"/>
       <c r="I668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -7619,7 +7933,7 @@
       <c r="H669" s="9"/>
       <c r="I669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -7630,7 +7944,7 @@
       <c r="H670" s="9"/>
       <c r="I670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -7641,7 +7955,7 @@
       <c r="H671" s="9"/>
       <c r="I671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -7652,7 +7966,7 @@
       <c r="H672" s="9"/>
       <c r="I672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -7663,7 +7977,7 @@
       <c r="H673" s="9"/>
       <c r="I673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -7674,7 +7988,7 @@
       <c r="H674" s="9"/>
       <c r="I674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -7685,7 +7999,7 @@
       <c r="H675" s="9"/>
       <c r="I675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -7696,7 +8010,7 @@
       <c r="H676" s="9"/>
       <c r="I676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -7707,7 +8021,7 @@
       <c r="H677" s="9"/>
       <c r="I677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -7718,7 +8032,7 @@
       <c r="H678" s="9"/>
       <c r="I678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -7729,7 +8043,7 @@
       <c r="H679" s="9"/>
       <c r="I679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -7740,7 +8054,7 @@
       <c r="H680" s="9"/>
       <c r="I680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -7751,7 +8065,7 @@
       <c r="H681" s="9"/>
       <c r="I681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -7762,7 +8076,7 @@
       <c r="H682" s="9"/>
       <c r="I682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -7773,7 +8087,7 @@
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -7784,7 +8098,7 @@
       <c r="H684" s="9"/>
       <c r="I684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -7795,7 +8109,7 @@
       <c r="H685" s="9"/>
       <c r="I685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -7806,7 +8120,7 @@
       <c r="H686" s="9"/>
       <c r="I686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -7817,7 +8131,7 @@
       <c r="H687" s="9"/>
       <c r="I687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -7828,7 +8142,7 @@
       <c r="H688" s="9"/>
       <c r="I688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -7839,7 +8153,7 @@
       <c r="H689" s="9"/>
       <c r="I689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -7850,7 +8164,7 @@
       <c r="H690" s="9"/>
       <c r="I690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -7861,7 +8175,7 @@
       <c r="H691" s="9"/>
       <c r="I691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -7872,7 +8186,7 @@
       <c r="H692" s="9"/>
       <c r="I692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -7883,7 +8197,7 @@
       <c r="H693" s="9"/>
       <c r="I693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -7894,7 +8208,7 @@
       <c r="H694" s="9"/>
       <c r="I694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -7905,7 +8219,7 @@
       <c r="H695" s="9"/>
       <c r="I695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -7916,7 +8230,7 @@
       <c r="H696" s="9"/>
       <c r="I696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -7927,7 +8241,7 @@
       <c r="H697" s="9"/>
       <c r="I697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -7938,7 +8252,7 @@
       <c r="H698" s="9"/>
       <c r="I698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -7949,7 +8263,7 @@
       <c r="H699" s="9"/>
       <c r="I699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -7960,7 +8274,7 @@
       <c r="H700" s="9"/>
       <c r="I700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -7971,7 +8285,7 @@
       <c r="H701" s="9"/>
       <c r="I701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -7982,7 +8296,7 @@
       <c r="H702" s="9"/>
       <c r="I702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -7993,7 +8307,7 @@
       <c r="H703" s="9"/>
       <c r="I703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -8004,7 +8318,7 @@
       <c r="H704" s="9"/>
       <c r="I704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -8015,7 +8329,7 @@
       <c r="H705" s="9"/>
       <c r="I705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -8026,7 +8340,7 @@
       <c r="H706" s="9"/>
       <c r="I706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -8037,7 +8351,7 @@
       <c r="H707" s="9"/>
       <c r="I707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -8048,7 +8362,7 @@
       <c r="H708" s="9"/>
       <c r="I708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -8059,7 +8373,7 @@
       <c r="H709" s="9"/>
       <c r="I709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -8070,7 +8384,7 @@
       <c r="H710" s="9"/>
       <c r="I710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -8081,7 +8395,7 @@
       <c r="H711" s="9"/>
       <c r="I711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -8092,7 +8406,7 @@
       <c r="H712" s="9"/>
       <c r="I712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -8103,7 +8417,7 @@
       <c r="H713" s="9"/>
       <c r="I713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -8114,7 +8428,7 @@
       <c r="H714" s="9"/>
       <c r="I714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -8125,7 +8439,7 @@
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -8136,7 +8450,7 @@
       <c r="H716" s="9"/>
       <c r="I716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -8147,7 +8461,7 @@
       <c r="H717" s="9"/>
       <c r="I717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -8158,7 +8472,7 @@
       <c r="H718" s="9"/>
       <c r="I718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -8169,7 +8483,7 @@
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -8180,7 +8494,7 @@
       <c r="H720" s="9"/>
       <c r="I720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -8191,7 +8505,7 @@
       <c r="H721" s="9"/>
       <c r="I721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -8202,7 +8516,7 @@
       <c r="H722" s="9"/>
       <c r="I722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -8213,7 +8527,7 @@
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -8224,7 +8538,7 @@
       <c r="H724" s="9"/>
       <c r="I724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -8235,7 +8549,7 @@
       <c r="H725" s="9"/>
       <c r="I725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -8246,7 +8560,7 @@
       <c r="H726" s="9"/>
       <c r="I726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -8257,7 +8571,7 @@
       <c r="H727" s="9"/>
       <c r="I727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -8268,7 +8582,7 @@
       <c r="H728" s="9"/>
       <c r="I728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -8279,7 +8593,7 @@
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -8290,7 +8604,7 @@
       <c r="H730" s="9"/>
       <c r="I730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -8301,7 +8615,7 @@
       <c r="H731" s="9"/>
       <c r="I731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -8312,7 +8626,7 @@
       <c r="H732" s="9"/>
       <c r="I732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -8323,7 +8637,7 @@
       <c r="H733" s="9"/>
       <c r="I733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -8334,7 +8648,7 @@
       <c r="H734" s="9"/>
       <c r="I734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -8345,7 +8659,7 @@
       <c r="H735" s="9"/>
       <c r="I735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -8356,7 +8670,7 @@
       <c r="H736" s="9"/>
       <c r="I736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -8367,7 +8681,7 @@
       <c r="H737" s="9"/>
       <c r="I737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -8378,7 +8692,7 @@
       <c r="H738" s="9"/>
       <c r="I738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -8389,7 +8703,7 @@
       <c r="H739" s="9"/>
       <c r="I739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -8400,7 +8714,7 @@
       <c r="H740" s="9"/>
       <c r="I740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -8411,7 +8725,7 @@
       <c r="H741" s="9"/>
       <c r="I741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -8422,7 +8736,7 @@
       <c r="H742" s="9"/>
       <c r="I742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -8433,7 +8747,7 @@
       <c r="H743" s="9"/>
       <c r="I743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -8444,7 +8758,7 @@
       <c r="H744" s="9"/>
       <c r="I744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -8455,7 +8769,7 @@
       <c r="H745" s="9"/>
       <c r="I745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -8466,7 +8780,7 @@
       <c r="H746" s="9"/>
       <c r="I746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -8477,7 +8791,7 @@
       <c r="H747" s="9"/>
       <c r="I747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -8488,7 +8802,7 @@
       <c r="H748" s="9"/>
       <c r="I748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -8499,7 +8813,7 @@
       <c r="H749" s="9"/>
       <c r="I749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -8510,7 +8824,7 @@
       <c r="H750" s="9"/>
       <c r="I750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -8521,7 +8835,7 @@
       <c r="H751" s="9"/>
       <c r="I751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -8532,7 +8846,7 @@
       <c r="H752" s="9"/>
       <c r="I752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -8543,7 +8857,7 @@
       <c r="H753" s="9"/>
       <c r="I753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -8554,7 +8868,7 @@
       <c r="H754" s="9"/>
       <c r="I754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -8565,7 +8879,7 @@
       <c r="H755" s="9"/>
       <c r="I755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -8576,7 +8890,7 @@
       <c r="H756" s="9"/>
       <c r="I756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -8587,7 +8901,7 @@
       <c r="H757" s="9"/>
       <c r="I757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -8598,7 +8912,7 @@
       <c r="H758" s="9"/>
       <c r="I758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -8609,7 +8923,7 @@
       <c r="H759" s="9"/>
       <c r="I759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -8620,7 +8934,7 @@
       <c r="H760" s="9"/>
       <c r="I760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -8631,7 +8945,7 @@
       <c r="H761" s="9"/>
       <c r="I761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -8642,7 +8956,7 @@
       <c r="H762" s="9"/>
       <c r="I762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -8653,7 +8967,7 @@
       <c r="H763" s="9"/>
       <c r="I763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -8664,7 +8978,7 @@
       <c r="H764" s="9"/>
       <c r="I764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -8675,7 +8989,7 @@
       <c r="H765" s="9"/>
       <c r="I765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -8686,7 +9000,7 @@
       <c r="H766" s="9"/>
       <c r="I766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -8697,7 +9011,7 @@
       <c r="H767" s="9"/>
       <c r="I767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -8708,7 +9022,7 @@
       <c r="H768" s="9"/>
       <c r="I768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -8719,7 +9033,7 @@
       <c r="H769" s="9"/>
       <c r="I769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -8730,7 +9044,7 @@
       <c r="H770" s="9"/>
       <c r="I770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -8741,7 +9055,7 @@
       <c r="H771" s="9"/>
       <c r="I771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -8752,7 +9066,7 @@
       <c r="H772" s="9"/>
       <c r="I772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -8763,7 +9077,7 @@
       <c r="H773" s="9"/>
       <c r="I773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -8774,7 +9088,7 @@
       <c r="H774" s="9"/>
       <c r="I774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -8785,7 +9099,7 @@
       <c r="H775" s="9"/>
       <c r="I775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -8796,7 +9110,7 @@
       <c r="H776" s="9"/>
       <c r="I776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -8807,7 +9121,7 @@
       <c r="H777" s="9"/>
       <c r="I777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -8818,7 +9132,7 @@
       <c r="H778" s="9"/>
       <c r="I778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -8829,7 +9143,7 @@
       <c r="H779" s="9"/>
       <c r="I779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -8840,7 +9154,7 @@
       <c r="H780" s="9"/>
       <c r="I780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -8851,7 +9165,7 @@
       <c r="H781" s="9"/>
       <c r="I781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -8862,7 +9176,7 @@
       <c r="H782" s="9"/>
       <c r="I782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -8873,7 +9187,7 @@
       <c r="H783" s="9"/>
       <c r="I783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -8884,7 +9198,7 @@
       <c r="H784" s="9"/>
       <c r="I784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -8895,7 +9209,7 @@
       <c r="H785" s="9"/>
       <c r="I785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -8906,7 +9220,7 @@
       <c r="H786" s="9"/>
       <c r="I786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -8917,7 +9231,7 @@
       <c r="H787" s="9"/>
       <c r="I787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -8928,7 +9242,7 @@
       <c r="H788" s="9"/>
       <c r="I788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -8939,7 +9253,7 @@
       <c r="H789" s="9"/>
       <c r="I789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -8950,7 +9264,7 @@
       <c r="H790" s="9"/>
       <c r="I790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -8961,7 +9275,7 @@
       <c r="H791" s="9"/>
       <c r="I791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -8972,7 +9286,7 @@
       <c r="H792" s="9"/>
       <c r="I792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -8983,7 +9297,7 @@
       <c r="H793" s="9"/>
       <c r="I793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -8994,7 +9308,7 @@
       <c r="H794" s="9"/>
       <c r="I794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -9005,7 +9319,7 @@
       <c r="H795" s="9"/>
       <c r="I795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -9016,7 +9330,7 @@
       <c r="H796" s="9"/>
       <c r="I796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -9027,7 +9341,7 @@
       <c r="H797" s="9"/>
       <c r="I797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -9038,7 +9352,7 @@
       <c r="H798" s="9"/>
       <c r="I798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -9049,7 +9363,7 @@
       <c r="H799" s="9"/>
       <c r="I799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -9060,7 +9374,7 @@
       <c r="H800" s="9"/>
       <c r="I800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -9071,7 +9385,7 @@
       <c r="H801" s="9"/>
       <c r="I801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -9082,7 +9396,7 @@
       <c r="H802" s="9"/>
       <c r="I802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -9093,7 +9407,7 @@
       <c r="H803" s="9"/>
       <c r="I803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -9104,7 +9418,7 @@
       <c r="H804" s="9"/>
       <c r="I804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -9115,7 +9429,7 @@
       <c r="H805" s="9"/>
       <c r="I805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -9126,7 +9440,7 @@
       <c r="H806" s="9"/>
       <c r="I806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -9137,7 +9451,7 @@
       <c r="H807" s="9"/>
       <c r="I807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -9148,7 +9462,7 @@
       <c r="H808" s="9"/>
       <c r="I808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -9159,7 +9473,7 @@
       <c r="H809" s="9"/>
       <c r="I809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -9170,7 +9484,7 @@
       <c r="H810" s="9"/>
       <c r="I810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -9181,7 +9495,7 @@
       <c r="H811" s="9"/>
       <c r="I811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -9192,7 +9506,7 @@
       <c r="H812" s="9"/>
       <c r="I812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -9203,7 +9517,7 @@
       <c r="H813" s="9"/>
       <c r="I813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -9214,7 +9528,7 @@
       <c r="H814" s="9"/>
       <c r="I814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -9225,7 +9539,7 @@
       <c r="H815" s="9"/>
       <c r="I815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -9236,7 +9550,7 @@
       <c r="H816" s="9"/>
       <c r="I816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -9247,7 +9561,7 @@
       <c r="H817" s="9"/>
       <c r="I817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -9258,7 +9572,7 @@
       <c r="H818" s="9"/>
       <c r="I818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -9269,7 +9583,7 @@
       <c r="H819" s="9"/>
       <c r="I819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -9280,7 +9594,7 @@
       <c r="H820" s="9"/>
       <c r="I820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -9291,7 +9605,7 @@
       <c r="H821" s="9"/>
       <c r="I821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -9302,7 +9616,7 @@
       <c r="H822" s="9"/>
       <c r="I822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -9313,7 +9627,7 @@
       <c r="H823" s="9"/>
       <c r="I823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -9324,7 +9638,7 @@
       <c r="H824" s="9"/>
       <c r="I824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -9335,7 +9649,7 @@
       <c r="H825" s="9"/>
       <c r="I825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -9346,7 +9660,7 @@
       <c r="H826" s="9"/>
       <c r="I826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -9357,7 +9671,7 @@
       <c r="H827" s="9"/>
       <c r="I827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -9368,7 +9682,7 @@
       <c r="H828" s="9"/>
       <c r="I828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -9379,7 +9693,7 @@
       <c r="H829" s="9"/>
       <c r="I829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -9390,7 +9704,7 @@
       <c r="H830" s="9"/>
       <c r="I830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -9401,7 +9715,7 @@
       <c r="H831" s="9"/>
       <c r="I831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -9412,7 +9726,7 @@
       <c r="H832" s="9"/>
       <c r="I832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -9423,7 +9737,7 @@
       <c r="H833" s="9"/>
       <c r="I833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -9434,7 +9748,7 @@
       <c r="H834" s="9"/>
       <c r="I834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -9445,7 +9759,7 @@
       <c r="H835" s="9"/>
       <c r="I835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -9456,7 +9770,7 @@
       <c r="H836" s="9"/>
       <c r="I836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -9467,7 +9781,7 @@
       <c r="H837" s="9"/>
       <c r="I837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -9478,7 +9792,7 @@
       <c r="H838" s="9"/>
       <c r="I838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -9489,7 +9803,7 @@
       <c r="H839" s="9"/>
       <c r="I839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -9500,7 +9814,7 @@
       <c r="H840" s="9"/>
       <c r="I840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -9511,7 +9825,7 @@
       <c r="H841" s="9"/>
       <c r="I841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -9522,7 +9836,7 @@
       <c r="H842" s="9"/>
       <c r="I842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -9533,7 +9847,7 @@
       <c r="H843" s="9"/>
       <c r="I843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -9544,7 +9858,7 @@
       <c r="H844" s="9"/>
       <c r="I844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -9555,7 +9869,7 @@
       <c r="H845" s="9"/>
       <c r="I845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -9566,7 +9880,7 @@
       <c r="H846" s="9"/>
       <c r="I846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -9577,7 +9891,7 @@
       <c r="H847" s="9"/>
       <c r="I847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -9588,7 +9902,7 @@
       <c r="H848" s="9"/>
       <c r="I848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -9599,7 +9913,7 @@
       <c r="H849" s="9"/>
       <c r="I849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -9610,7 +9924,7 @@
       <c r="H850" s="9"/>
       <c r="I850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -9621,7 +9935,7 @@
       <c r="H851" s="9"/>
       <c r="I851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -9632,7 +9946,7 @@
       <c r="H852" s="9"/>
       <c r="I852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -9643,7 +9957,7 @@
       <c r="H853" s="9"/>
       <c r="I853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -9654,7 +9968,7 @@
       <c r="H854" s="9"/>
       <c r="I854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -9665,7 +9979,7 @@
       <c r="H855" s="9"/>
       <c r="I855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -9676,7 +9990,7 @@
       <c r="H856" s="9"/>
       <c r="I856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -9687,7 +10001,7 @@
       <c r="H857" s="9"/>
       <c r="I857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -9698,7 +10012,7 @@
       <c r="H858" s="9"/>
       <c r="I858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -9709,7 +10023,7 @@
       <c r="H859" s="9"/>
       <c r="I859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -9720,7 +10034,7 @@
       <c r="H860" s="9"/>
       <c r="I860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -9731,7 +10045,7 @@
       <c r="H861" s="9"/>
       <c r="I861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -9742,7 +10056,7 @@
       <c r="H862" s="9"/>
       <c r="I862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -9753,7 +10067,7 @@
       <c r="H863" s="9"/>
       <c r="I863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -9764,7 +10078,7 @@
       <c r="H864" s="9"/>
       <c r="I864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -9775,7 +10089,7 @@
       <c r="H865" s="9"/>
       <c r="I865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -9786,7 +10100,7 @@
       <c r="H866" s="9"/>
       <c r="I866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -9797,7 +10111,7 @@
       <c r="H867" s="9"/>
       <c r="I867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -9808,7 +10122,7 @@
       <c r="H868" s="9"/>
       <c r="I868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -9819,7 +10133,7 @@
       <c r="H869" s="9"/>
       <c r="I869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -9830,7 +10144,7 @@
       <c r="H870" s="9"/>
       <c r="I870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -9841,7 +10155,7 @@
       <c r="H871" s="9"/>
       <c r="I871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -9852,7 +10166,7 @@
       <c r="H872" s="9"/>
       <c r="I872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -9863,7 +10177,7 @@
       <c r="H873" s="9"/>
       <c r="I873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -9874,7 +10188,7 @@
       <c r="H874" s="9"/>
       <c r="I874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -9885,7 +10199,7 @@
       <c r="H875" s="9"/>
       <c r="I875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -9896,7 +10210,7 @@
       <c r="H876" s="9"/>
       <c r="I876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -9907,7 +10221,7 @@
       <c r="H877" s="9"/>
       <c r="I877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -9918,7 +10232,7 @@
       <c r="H878" s="9"/>
       <c r="I878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -9929,7 +10243,7 @@
       <c r="H879" s="9"/>
       <c r="I879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -9940,7 +10254,7 @@
       <c r="H880" s="9"/>
       <c r="I880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -9951,7 +10265,7 @@
       <c r="H881" s="9"/>
       <c r="I881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -9962,7 +10276,7 @@
       <c r="H882" s="9"/>
       <c r="I882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -9973,7 +10287,7 @@
       <c r="H883" s="9"/>
       <c r="I883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -9984,7 +10298,7 @@
       <c r="H884" s="9"/>
       <c r="I884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -9995,7 +10309,7 @@
       <c r="H885" s="9"/>
       <c r="I885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -10006,7 +10320,7 @@
       <c r="H886" s="9"/>
       <c r="I886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -10017,7 +10331,7 @@
       <c r="H887" s="9"/>
       <c r="I887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -10028,7 +10342,7 @@
       <c r="H888" s="9"/>
       <c r="I888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -10039,7 +10353,7 @@
       <c r="H889" s="9"/>
       <c r="I889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -10050,7 +10364,7 @@
       <c r="H890" s="9"/>
       <c r="I890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -10061,7 +10375,7 @@
       <c r="H891" s="9"/>
       <c r="I891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -10072,7 +10386,7 @@
       <c r="H892" s="9"/>
       <c r="I892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -10083,7 +10397,7 @@
       <c r="H893" s="9"/>
       <c r="I893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -10094,7 +10408,7 @@
       <c r="H894" s="9"/>
       <c r="I894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -10105,7 +10419,7 @@
       <c r="H895" s="9"/>
       <c r="I895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -10116,7 +10430,7 @@
       <c r="H896" s="9"/>
       <c r="I896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -10127,7 +10441,7 @@
       <c r="H897" s="9"/>
       <c r="I897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -10138,7 +10452,7 @@
       <c r="H898" s="9"/>
       <c r="I898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -10149,7 +10463,7 @@
       <c r="H899" s="9"/>
       <c r="I899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -10160,7 +10474,7 @@
       <c r="H900" s="9"/>
       <c r="I900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -10171,7 +10485,7 @@
       <c r="H901" s="9"/>
       <c r="I901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -10182,7 +10496,7 @@
       <c r="H902" s="9"/>
       <c r="I902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -10193,7 +10507,7 @@
       <c r="H903" s="9"/>
       <c r="I903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -10204,7 +10518,7 @@
       <c r="H904" s="9"/>
       <c r="I904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -10215,7 +10529,7 @@
       <c r="H905" s="9"/>
       <c r="I905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -10226,7 +10540,7 @@
       <c r="H906" s="9"/>
       <c r="I906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -10237,7 +10551,7 @@
       <c r="H907" s="9"/>
       <c r="I907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -10248,7 +10562,7 @@
       <c r="H908" s="9"/>
       <c r="I908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -10259,7 +10573,7 @@
       <c r="H909" s="9"/>
       <c r="I909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -10270,7 +10584,7 @@
       <c r="H910" s="9"/>
       <c r="I910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -10281,7 +10595,7 @@
       <c r="H911" s="9"/>
       <c r="I911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -10292,7 +10606,7 @@
       <c r="H912" s="9"/>
       <c r="I912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -10303,7 +10617,7 @@
       <c r="H913" s="9"/>
       <c r="I913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -10314,7 +10628,7 @@
       <c r="H914" s="9"/>
       <c r="I914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -10325,7 +10639,7 @@
       <c r="H915" s="9"/>
       <c r="I915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -10336,7 +10650,7 @@
       <c r="H916" s="9"/>
       <c r="I916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -10347,7 +10661,7 @@
       <c r="H917" s="9"/>
       <c r="I917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -10358,7 +10672,7 @@
       <c r="H918" s="9"/>
       <c r="I918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -10369,7 +10683,7 @@
       <c r="H919" s="9"/>
       <c r="I919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -10380,7 +10694,7 @@
       <c r="H920" s="9"/>
       <c r="I920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -10391,7 +10705,7 @@
       <c r="H921" s="9"/>
       <c r="I921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -10402,7 +10716,7 @@
       <c r="H922" s="9"/>
       <c r="I922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -10413,7 +10727,7 @@
       <c r="H923" s="9"/>
       <c r="I923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -10424,7 +10738,7 @@
       <c r="H924" s="9"/>
       <c r="I924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -10435,7 +10749,7 @@
       <c r="H925" s="9"/>
       <c r="I925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -10446,7 +10760,7 @@
       <c r="H926" s="9"/>
       <c r="I926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -10457,7 +10771,7 @@
       <c r="H927" s="9"/>
       <c r="I927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -10468,7 +10782,7 @@
       <c r="H928" s="9"/>
       <c r="I928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -10479,7 +10793,7 @@
       <c r="H929" s="9"/>
       <c r="I929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -10490,7 +10804,7 @@
       <c r="H930" s="9"/>
       <c r="I930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -10501,7 +10815,7 @@
       <c r="H931" s="9"/>
       <c r="I931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -10512,7 +10826,7 @@
       <c r="H932" s="9"/>
       <c r="I932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -10523,7 +10837,7 @@
       <c r="H933" s="9"/>
       <c r="I933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -10534,7 +10848,7 @@
       <c r="H934" s="9"/>
       <c r="I934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -10545,7 +10859,7 @@
       <c r="H935" s="9"/>
       <c r="I935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -10556,7 +10870,7 @@
       <c r="H936" s="9"/>
       <c r="I936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -10567,7 +10881,7 @@
       <c r="H937" s="9"/>
       <c r="I937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -10578,7 +10892,7 @@
       <c r="H938" s="9"/>
       <c r="I938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -10589,7 +10903,7 @@
       <c r="H939" s="9"/>
       <c r="I939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -10600,7 +10914,7 @@
       <c r="H940" s="9"/>
       <c r="I940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -10611,7 +10925,7 @@
       <c r="H941" s="9"/>
       <c r="I941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -10622,7 +10936,7 @@
       <c r="H942" s="9"/>
       <c r="I942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -10633,7 +10947,7 @@
       <c r="H943" s="9"/>
       <c r="I943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -10644,7 +10958,7 @@
       <c r="H944" s="9"/>
       <c r="I944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -10655,7 +10969,7 @@
       <c r="H945" s="9"/>
       <c r="I945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -10666,7 +10980,7 @@
       <c r="H946" s="9"/>
       <c r="I946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -10677,7 +10991,7 @@
       <c r="H947" s="9"/>
       <c r="I947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -10688,7 +11002,7 @@
       <c r="H948" s="9"/>
       <c r="I948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -10699,7 +11013,7 @@
       <c r="H949" s="9"/>
       <c r="I949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
@@ -10710,7 +11024,7 @@
       <c r="H950" s="9"/>
       <c r="I950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
@@ -10721,7 +11035,7 @@
       <c r="H951" s="9"/>
       <c r="I951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
@@ -10732,7 +11046,7 @@
       <c r="H952" s="9"/>
       <c r="I952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
@@ -10743,7 +11057,7 @@
       <c r="H953" s="9"/>
       <c r="I953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
@@ -10754,7 +11068,7 @@
       <c r="H954" s="9"/>
       <c r="I954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
@@ -10765,7 +11079,7 @@
       <c r="H955" s="9"/>
       <c r="I955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
@@ -10776,7 +11090,7 @@
       <c r="H956" s="9"/>
       <c r="I956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
@@ -10787,7 +11101,7 @@
       <c r="H957" s="9"/>
       <c r="I957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -10798,7 +11112,7 @@
       <c r="H958" s="9"/>
       <c r="I958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
@@ -10809,7 +11123,7 @@
       <c r="H959" s="9"/>
       <c r="I959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
@@ -10820,7 +11134,7 @@
       <c r="H960" s="9"/>
       <c r="I960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
@@ -10831,7 +11145,7 @@
       <c r="H961" s="9"/>
       <c r="I961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
@@ -10842,7 +11156,7 @@
       <c r="H962" s="9"/>
       <c r="I962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
@@ -10853,7 +11167,7 @@
       <c r="H963" s="9"/>
       <c r="I963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="6"/>
@@ -10864,7 +11178,7 @@
       <c r="H964" s="9"/>
       <c r="I964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="6"/>
@@ -10875,7 +11189,7 @@
       <c r="H965" s="9"/>
       <c r="I965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="6"/>
@@ -10886,7 +11200,7 @@
       <c r="H966" s="9"/>
       <c r="I966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="6"/>
@@ -10897,7 +11211,7 @@
       <c r="H967" s="9"/>
       <c r="I967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="6"/>
@@ -10908,7 +11222,7 @@
       <c r="H968" s="9"/>
       <c r="I968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -10919,7 +11233,7 @@
       <c r="H969" s="9"/>
       <c r="I969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="6"/>
@@ -10930,7 +11244,7 @@
       <c r="H970" s="9"/>
       <c r="I970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="6"/>
@@ -10941,7 +11255,7 @@
       <c r="H971" s="9"/>
       <c r="I971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="6"/>
@@ -10952,7 +11266,7 @@
       <c r="H972" s="9"/>
       <c r="I972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="6"/>
@@ -10963,7 +11277,7 @@
       <c r="H973" s="9"/>
       <c r="I973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="6"/>
@@ -10974,7 +11288,7 @@
       <c r="H974" s="9"/>
       <c r="I974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="6"/>
@@ -10985,7 +11299,7 @@
       <c r="H975" s="9"/>
       <c r="I975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="6"/>
@@ -10996,7 +11310,7 @@
       <c r="H976" s="9"/>
       <c r="I976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="6"/>
@@ -11007,7 +11321,7 @@
       <c r="H977" s="9"/>
       <c r="I977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="6"/>
@@ -11018,7 +11332,7 @@
       <c r="H978" s="9"/>
       <c r="I978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="6"/>
@@ -11029,7 +11343,7 @@
       <c r="H979" s="9"/>
       <c r="I979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="6"/>
@@ -11040,7 +11354,7 @@
       <c r="H980" s="9"/>
       <c r="I980" s="9"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -11051,7 +11365,7 @@
       <c r="H981" s="9"/>
       <c r="I981" s="9"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="6"/>
@@ -11062,7 +11376,7 @@
       <c r="H982" s="9"/>
       <c r="I982" s="9"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="6"/>
@@ -11073,7 +11387,7 @@
       <c r="H983" s="9"/>
       <c r="I983" s="9"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="6"/>
@@ -11084,7 +11398,7 @@
       <c r="H984" s="9"/>
       <c r="I984" s="9"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
       <c r="C985" s="6"/>
@@ -11095,7 +11409,7 @@
       <c r="H985" s="9"/>
       <c r="I985" s="9"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
       <c r="C986" s="6"/>
@@ -11106,7 +11420,7 @@
       <c r="H986" s="9"/>
       <c r="I986" s="9"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
       <c r="C987" s="6"/>
@@ -11117,7 +11431,7 @@
       <c r="H987" s="9"/>
       <c r="I987" s="9"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
       <c r="C988" s="6"/>
@@ -11128,7 +11442,7 @@
       <c r="H988" s="9"/>
       <c r="I988" s="9"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
       <c r="C989" s="6"/>
@@ -11139,7 +11453,7 @@
       <c r="H989" s="9"/>
       <c r="I989" s="9"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
       <c r="C990" s="6"/>
@@ -11150,7 +11464,7 @@
       <c r="H990" s="9"/>
       <c r="I990" s="9"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
       <c r="C991" s="6"/>
@@ -11161,7 +11475,7 @@
       <c r="H991" s="9"/>
       <c r="I991" s="9"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
       <c r="C992" s="6"/>
@@ -11172,7 +11486,7 @@
       <c r="H992" s="9"/>
       <c r="I992" s="9"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -11183,7 +11497,7 @@
       <c r="H993" s="9"/>
       <c r="I993" s="9"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
       <c r="C994" s="6"/>
@@ -11194,7 +11508,7 @@
       <c r="H994" s="9"/>
       <c r="I994" s="9"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
       <c r="C995" s="6"/>
@@ -11205,7 +11519,7 @@
       <c r="H995" s="9"/>
       <c r="I995" s="9"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
       <c r="C996" s="6"/>
@@ -11216,7 +11530,7 @@
       <c r="H996" s="9"/>
       <c r="I996" s="9"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
@@ -11227,7 +11541,7 @@
       <c r="H997" s="9"/>
       <c r="I997" s="9"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
       <c r="C998" s="6"/>
@@ -11238,7 +11552,7 @@
       <c r="H998" s="9"/>
       <c r="I998" s="9"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
       <c r="C999" s="6"/>
@@ -11249,7 +11563,7 @@
       <c r="H999" s="9"/>
       <c r="I999" s="9"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="6"/>
@@ -11262,8 +11576,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>